--- a/VoisTest/TestData/nopCommerce.xlsx
+++ b/VoisTest/TestData/nopCommerce.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Candle_Store\Desktop\VOIS_Testng\VoisTest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153B4F45-019F-436F-80C3-BA69ACC04BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751C2ED7-05EF-47BD-BB6B-1ACD2307CA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>confirmpasswrod</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
     <t>mohamed</t>
   </si>
   <si>
@@ -104,7 +101,10 @@
     <t>2nd Day Air ($0.00)</t>
   </si>
   <si>
-    <t>mohamed117@hendy.com</t>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>mohamed149@hendy.com</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,13 +485,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
       </c>
       <c r="D2">
         <v>23</v>
@@ -506,13 +506,13 @@
         <v>25</v>
       </c>
       <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -540,12 +540,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -569,22 +569,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -592,10 +592,10 @@
         <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>11311</v>
@@ -604,7 +604,7 @@
         <v>1023818181</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
